--- a/MODIS_AOD modified/statistics_lapaz3x3.xlsx
+++ b/MODIS_AOD modified/statistics_lapaz3x3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Statistics</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>MEAN_AERONET</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +467,14 @@
         <v>0.08729092905774279</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,6 +813,47 @@
         <v>0.073348471</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,13 +861,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>2006</v>
       </c>
@@ -852,11 +904,8 @@
       <c r="M1" s="1">
         <v>2017</v>
       </c>
-      <c r="N1" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,7 +943,7 @@
         <v>0.1402928911551746</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +981,7 @@
         <v>0.3942439541459686</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1019,7 @@
         <v>0.3003756708337773</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1057,7 @@
         <v>0.08320584002475237</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1095,7 @@
         <v>0.07781868811114284</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1133,7 @@
         <v>0.182418149254</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1120,6 +1169,44 @@
       </c>
       <c r="M8">
         <v>0.1045994611428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MODIS_AOD modified/statistics_lapaz3x3.xlsx
+++ b/MODIS_AOD modified/statistics_lapaz3x3.xlsx
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.08474692775240769</v>
+        <v>0.1546574809485478</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5583014398040201</v>
+        <v>2.69844014698019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3925322800777406</v>
+        <v>0.3838164737673087</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05842375159006136</v>
+        <v>0.1146786765760137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04396956140292234</v>
+        <v>0.1014758454536874</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1312604904606651</v>
+        <v>0.1881324494120208</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.08729092905774279</v>
+        <v>0.08665660395833334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>381</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -531,40 +531,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1661802342945581</v>
+        <v>0.3568910137159959</v>
       </c>
       <c r="C2">
-        <v>0.1335481486488412</v>
+        <v>0.1453278273961506</v>
       </c>
       <c r="D2">
-        <v>0.1025775896967636</v>
+        <v>0.2220587393671027</v>
       </c>
       <c r="E2">
-        <v>0.07294573036141362</v>
+        <v>0.1644712095783876</v>
       </c>
       <c r="F2">
-        <v>0.04167130901154967</v>
+        <v>0.1374578152580881</v>
       </c>
       <c r="G2">
-        <v>0.04957082659423106</v>
+        <v>0.1080535540374005</v>
       </c>
       <c r="H2">
-        <v>0.05876534283585855</v>
+        <v>0.1215267293278492</v>
       </c>
       <c r="I2">
-        <v>0.0597346816762755</v>
+        <v>0.1473215805147113</v>
       </c>
       <c r="J2">
-        <v>0.1033174688568926</v>
+        <v>0.1797654493497215</v>
       </c>
       <c r="K2">
-        <v>0.1052239182266245</v>
+        <v>0.1584748750842526</v>
       </c>
       <c r="L2">
-        <v>0.09720932219540496</v>
+        <v>0.1560010384798874</v>
       </c>
       <c r="M2">
-        <v>0.1538941343471959</v>
+        <v>0.1971368763580774</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -572,40 +572,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2059592078619622</v>
+        <v>-37.23346397844076</v>
       </c>
       <c r="C3">
-        <v>0.5130461051890752</v>
+        <v>1.929977275574772</v>
       </c>
       <c r="D3">
-        <v>0.544851510635414</v>
+        <v>6.093962034303672</v>
       </c>
       <c r="E3">
-        <v>0.5787534509834562</v>
+        <v>3.412888721896989</v>
       </c>
       <c r="F3">
-        <v>0.7152682303804824</v>
+        <v>4.013397397973781</v>
       </c>
       <c r="G3">
-        <v>0.7641730580932933</v>
+        <v>2.131294830070397</v>
       </c>
       <c r="H3">
-        <v>0.5736450612484629</v>
+        <v>2.818463263969693</v>
       </c>
       <c r="I3">
-        <v>0.72450681645575</v>
+        <v>2.047938277630508</v>
       </c>
       <c r="J3">
-        <v>0.6352581434999504</v>
+        <v>1.642755691977874</v>
       </c>
       <c r="K3">
-        <v>0.5628432607037087</v>
+        <v>4.431015219582292</v>
       </c>
       <c r="L3">
-        <v>0.2865498611896932</v>
+        <v>-4.607035486040331</v>
       </c>
       <c r="M3">
-        <v>0.1879158483889226</v>
+        <v>-13.99132960573672</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -613,40 +613,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1999071199580946</v>
+        <v>-0.3606211175089777</v>
       </c>
       <c r="C4">
-        <v>0.9557723342987658</v>
+        <v>0.2450242050720917</v>
       </c>
       <c r="D4">
-        <v>0.5137704550002822</v>
+        <v>0.8906150681839287</v>
       </c>
       <c r="E4">
-        <v>0.7820125781867998</v>
+        <v>0.3565683628701244</v>
       </c>
       <c r="F4">
-        <v>0.4696500755686063</v>
+        <v>0.3603559355420568</v>
       </c>
       <c r="G4">
-        <v>0.6370352724056374</v>
+        <v>0.5757036195007328</v>
       </c>
       <c r="H4">
-        <v>0.05602752035487295</v>
+        <v>0.1508638490301752</v>
       </c>
       <c r="I4">
-        <v>0.4671611612534207</v>
+        <v>0.3434845331076297</v>
       </c>
       <c r="J4">
-        <v>0.4703183342160884</v>
+        <v>0.5243919769302634</v>
       </c>
       <c r="K4">
-        <v>0.05949101419501122</v>
+        <v>0.2907313246883527</v>
       </c>
       <c r="L4">
-        <v>0.2257820905427993</v>
+        <v>-0.5794078499363275</v>
       </c>
       <c r="M4">
-        <v>0.5463485053186353</v>
+        <v>-0.3267157786154967</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,40 +654,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1286311697961167</v>
+        <v>0.2477643626985334</v>
       </c>
       <c r="C5">
-        <v>0.1235961080506667</v>
+        <v>0.138452740435</v>
       </c>
       <c r="D5">
-        <v>0.08982294909038696</v>
+        <v>0.1372150052578333</v>
       </c>
       <c r="E5">
-        <v>0.06310084998108</v>
+        <v>0.138111324214045</v>
       </c>
       <c r="F5">
-        <v>0.03159795364376689</v>
+        <v>0.09737808610366028</v>
       </c>
       <c r="G5">
-        <v>0.03003534618575517</v>
+        <v>0.07780243492082187</v>
       </c>
       <c r="H5">
-        <v>0.03715055993048811</v>
+        <v>0.1019398689425263</v>
       </c>
       <c r="I5">
-        <v>0.04099801974073024</v>
+        <v>0.1198491193542429</v>
       </c>
       <c r="J5">
-        <v>0.07834370118959512</v>
+        <v>0.1595136905382143</v>
       </c>
       <c r="K5">
-        <v>0.08392971306793928</v>
+        <v>0.1228326968775428</v>
       </c>
       <c r="L5">
-        <v>0.07034831995629333</v>
+        <v>0.12387904794792</v>
       </c>
       <c r="M5">
-        <v>0.1030675837979286</v>
+        <v>0.117443676271025</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -695,40 +695,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1286311697961166</v>
+        <v>0.2334691007901333</v>
       </c>
       <c r="C6">
-        <v>0.1235961080506667</v>
+        <v>0.138452740435</v>
       </c>
       <c r="D6">
-        <v>0.08982294909038697</v>
+        <v>0.1314584328867</v>
       </c>
       <c r="E6">
-        <v>0.06265468977269144</v>
+        <v>0.137052581246275</v>
       </c>
       <c r="F6">
-        <v>0.01268219747832273</v>
+        <v>0.08374253371708258</v>
       </c>
       <c r="G6">
-        <v>0.01022780547701728</v>
+        <v>0.06144377617701559</v>
       </c>
       <c r="H6">
-        <v>0.01620033177679765</v>
+        <v>0.08399693314196841</v>
       </c>
       <c r="I6">
-        <v>0.01113176429774425</v>
+        <v>0.1059734743378429</v>
       </c>
       <c r="J6">
-        <v>0.06226999451287805</v>
+        <v>0.1375630713184999</v>
       </c>
       <c r="K6">
-        <v>0.0746360102158036</v>
+        <v>0.1122631173646285</v>
       </c>
       <c r="L6">
-        <v>0.05954329227661337</v>
+        <v>0.09992071377368003</v>
       </c>
       <c r="M6">
-        <v>0.1030675837979286</v>
+        <v>0.101138123315975</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -736,40 +736,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1936881164627833</v>
+        <v>0.2903333471234666</v>
       </c>
       <c r="C7">
-        <v>0.1913585243006667</v>
+        <v>0.1857777866016667</v>
       </c>
       <c r="D7">
-        <v>0.1551665406556044</v>
+        <v>0.1956759352200333</v>
       </c>
       <c r="E7">
-        <v>0.1341716877726915</v>
+        <v>0.209054176596275</v>
       </c>
       <c r="F7">
-        <v>0.08799618434039171</v>
+        <v>0.1588642932599398</v>
       </c>
       <c r="G7">
-        <v>0.0975025928390862</v>
+        <v>0.1570234449582656</v>
       </c>
       <c r="H7">
-        <v>0.1002145037529881</v>
+        <v>0.1651403587209158</v>
       </c>
       <c r="I7">
-        <v>0.1319635423442558</v>
+        <v>0.2281785822664143</v>
       </c>
       <c r="J7">
-        <v>0.1717269365128781</v>
+        <v>0.2623571553185</v>
       </c>
       <c r="K7">
-        <v>0.166707448394375</v>
+        <v>0.1911428662217714</v>
       </c>
       <c r="L7">
-        <v>0.15360262634328</v>
+        <v>0.19735000937368</v>
       </c>
       <c r="M7">
-        <v>0.1764160547979286</v>
+        <v>0.190875009065975</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -777,40 +777,40 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06505694666666667</v>
+        <v>0.05686424633333333</v>
       </c>
       <c r="C8">
-        <v>0.06776241625</v>
+        <v>0.04732504616666666</v>
       </c>
       <c r="D8">
-        <v>0.06534359156521739</v>
+        <v>0.06421750233333332</v>
       </c>
       <c r="E8">
-        <v>0.07151699800000001</v>
+        <v>0.07200159534999999</v>
       </c>
       <c r="F8">
-        <v>0.07531398686206897</v>
+        <v>0.07512175954285717</v>
       </c>
       <c r="G8">
-        <v>0.08727478736206892</v>
+        <v>0.09557966878125</v>
       </c>
       <c r="H8">
-        <v>0.08401417197619047</v>
+        <v>0.08114342557894738</v>
       </c>
       <c r="I8">
-        <v>0.1208317780465116</v>
+        <v>0.1222051079285714</v>
       </c>
       <c r="J8">
-        <v>0.109456942</v>
+        <v>0.124794084</v>
       </c>
       <c r="K8">
-        <v>0.09207143817857144</v>
+        <v>0.07887974885714286</v>
       </c>
       <c r="L8">
-        <v>0.09405933406666667</v>
+        <v>0.09742929559999999</v>
       </c>
       <c r="M8">
-        <v>0.073348471</v>
+        <v>0.08973688575</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -818,40 +818,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
       <c r="G9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K9">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -861,13 +861,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>2006</v>
       </c>
@@ -904,309 +904,312 @@
       <c r="M1" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.07312235978781861</v>
+        <v>0.1500225716411334</v>
       </c>
       <c r="C2">
-        <v>0.08413953826889452</v>
+        <v>0.1291989047355318</v>
       </c>
       <c r="D2">
-        <v>0.06263130823597882</v>
+        <v>0.0818209130353407</v>
       </c>
       <c r="F2">
-        <v>0.1049519567291077</v>
+        <v>0.2233715424522018</v>
       </c>
       <c r="G2">
-        <v>0.0530765599286236</v>
+        <v>0.101350728688392</v>
       </c>
       <c r="H2">
-        <v>0.05204262739101587</v>
+        <v>0.1497223002801608</v>
       </c>
       <c r="I2">
-        <v>0.07889212889437371</v>
+        <v>0.1849151099518127</v>
       </c>
       <c r="J2">
-        <v>0.1172729317669251</v>
+        <v>0.1500274869660959</v>
       </c>
       <c r="K2">
-        <v>0.09995752043384855</v>
+        <v>0.1876924827190067</v>
       </c>
       <c r="L2">
-        <v>0.07368292845751241</v>
+        <v>0.1745611112180894</v>
       </c>
       <c r="M2">
-        <v>0.1402928911551746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.112390263447821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6839057383503868</v>
+        <v>-1.238391763450412</v>
       </c>
       <c r="C3">
-        <v>0.4361123733892051</v>
+        <v>3.347511195450873</v>
       </c>
       <c r="D3">
-        <v>1.050429823827406</v>
+        <v>1.440677442701323</v>
       </c>
       <c r="F3">
-        <v>0.5237508713996724</v>
+        <v>2.024570434822136</v>
       </c>
       <c r="G3">
-        <v>0.6501167081974228</v>
+        <v>3.742577933778201</v>
       </c>
       <c r="H3">
-        <v>0.8125123135824253</v>
+        <v>2.475415283470784</v>
       </c>
       <c r="I3">
-        <v>0.3927730943953645</v>
+        <v>5.273271626555526</v>
       </c>
       <c r="J3">
-        <v>0.4457103340347772</v>
+        <v>4.506176626286087</v>
       </c>
       <c r="K3">
-        <v>0.4534498737235941</v>
+        <v>-3.872617940160398</v>
       </c>
       <c r="L3">
-        <v>0.7182543023937815</v>
+        <v>3.80782949722114</v>
       </c>
       <c r="M3">
-        <v>0.3942439541459686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.404585807621899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4069574428882585</v>
+        <v>-0.01068254766301596</v>
       </c>
       <c r="C4">
-        <v>0.5568893885940307</v>
+        <v>0.6522466681189094</v>
       </c>
       <c r="D4">
-        <v>0.622888211724052</v>
+        <v>0.8860591713718771</v>
       </c>
       <c r="F4">
-        <v>0.8341561933468207</v>
+        <v>0.6244967826075859</v>
       </c>
       <c r="G4">
-        <v>0.4239719280749141</v>
+        <v>0.4353093830697635</v>
       </c>
       <c r="H4">
-        <v>0.3999635265162779</v>
+        <v>0.4189813231737837</v>
       </c>
       <c r="I4">
-        <v>0.4602802287829269</v>
+        <v>0.06844480151763736</v>
       </c>
       <c r="J4">
-        <v>0.4620507001144373</v>
+        <v>0.3819182184362902</v>
       </c>
       <c r="K4">
-        <v>0.09635348059693526</v>
+        <v>-0.08604014901087036</v>
       </c>
       <c r="L4">
-        <v>0.3528957134823053</v>
+        <v>0.3676900803241546</v>
       </c>
       <c r="M4">
-        <v>0.3003756708337773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6186775554778738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05362305653114167</v>
+        <v>0.1259882946827857</v>
       </c>
       <c r="C5">
-        <v>0.06445134443536296</v>
+        <v>0.09950151858346819</v>
       </c>
       <c r="D5">
-        <v>0.04463249045656317</v>
+        <v>0.06318211090658572</v>
       </c>
       <c r="F5">
-        <v>0.08085861619092501</v>
+        <v>0.18042866569032</v>
       </c>
       <c r="G5">
-        <v>0.04155426624345129</v>
+        <v>0.07405489441831054</v>
       </c>
       <c r="H5">
-        <v>0.03953253852738296</v>
+        <v>0.1211650043772964</v>
       </c>
       <c r="I5">
-        <v>0.05096459467021137</v>
+        <v>0.1473073467146278</v>
       </c>
       <c r="J5">
-        <v>0.08984315471074814</v>
+        <v>0.1184295432666857</v>
       </c>
       <c r="K5">
-        <v>0.07094236701841251</v>
+        <v>0.1309095773087286</v>
       </c>
       <c r="L5">
-        <v>0.05579426507197665</v>
+        <v>0.1142294369287682</v>
       </c>
       <c r="M5">
-        <v>0.08320584002475237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.09687040125795714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.03077382001320277</v>
+        <v>0.1218058895460714</v>
       </c>
       <c r="C6">
-        <v>0.05654197030233334</v>
+        <v>0.09223634412035911</v>
       </c>
       <c r="D6">
-        <v>0.03479256503485792</v>
+        <v>0.05386465207512858</v>
       </c>
       <c r="F6">
-        <v>0.06661768226104167</v>
+        <v>0.16467146517328</v>
       </c>
       <c r="G6">
-        <v>0.02360879537716923</v>
+        <v>0.05545729772635262</v>
       </c>
       <c r="H6">
-        <v>0.0044577255998096</v>
+        <v>0.09209726328363158</v>
       </c>
       <c r="I6">
-        <v>0.0427530211064386</v>
+        <v>0.12926765635735</v>
       </c>
       <c r="J6">
-        <v>0.07765248960353335</v>
+        <v>0.1184295432666857</v>
       </c>
       <c r="K6">
-        <v>0.06897537738312756</v>
+        <v>0.1276981823774333</v>
       </c>
       <c r="L6">
-        <v>0.04517941802665337</v>
+        <v>0.1001222548887409</v>
       </c>
       <c r="M6">
-        <v>0.07781868811114284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.08642464201718573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1330519145965361</v>
+        <v>0.2270476298317857</v>
       </c>
       <c r="C7">
-        <v>0.1289921845245555</v>
+        <v>0.1687310686203591</v>
       </c>
       <c r="D7">
-        <v>0.1329967797190684</v>
+        <v>0.1840476277894143</v>
       </c>
       <c r="F7">
-        <v>0.1786027862610417</v>
+        <v>0.29840001417328</v>
       </c>
       <c r="G7">
-        <v>0.1083537317617846</v>
+        <v>0.1283157955684579</v>
       </c>
       <c r="H7">
-        <v>0.1021318908405503</v>
+        <v>0.1889966756436316</v>
       </c>
       <c r="I7">
-        <v>0.1168976196064386</v>
+        <v>0.2118240841351278</v>
       </c>
       <c r="J7">
-        <v>0.1655155354924222</v>
+        <v>0.1981071522666857</v>
       </c>
       <c r="K7">
-        <v>0.1388178757831275</v>
+        <v>0.2064523907583857</v>
       </c>
       <c r="L7">
-        <v>0.1303109930266534</v>
+        <v>0.1788484933432864</v>
       </c>
       <c r="M7">
-        <v>0.182418149254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1657857221600429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1022780945833333</v>
+        <v>0.1052417402857143</v>
       </c>
       <c r="C8">
-        <v>0.07245021422222221</v>
+        <v>0.0764947245</v>
       </c>
       <c r="D8">
-        <v>0.09820421468421051</v>
+        <v>0.1301829757142857</v>
       </c>
       <c r="F8">
-        <v>0.111985104</v>
+        <v>0.133728549</v>
       </c>
       <c r="G8">
-        <v>0.08474493638461537</v>
+        <v>0.07285849784210525</v>
       </c>
       <c r="H8">
-        <v>0.09767416524074074</v>
+        <v>0.09689941235999999</v>
       </c>
       <c r="I8">
-        <v>0.07414459850000002</v>
+        <v>0.08255642777777779</v>
       </c>
       <c r="J8">
-        <v>0.08786304588888888</v>
+        <v>0.07967760900000001</v>
       </c>
       <c r="K8">
-        <v>0.06984249839999998</v>
+        <v>0.07875420838095237</v>
       </c>
       <c r="L8">
-        <v>0.08513157499999999</v>
+        <v>0.07872623845454545</v>
       </c>
       <c r="M8">
-        <v>0.1045994611428571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.07936108014285713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>39</v>
-      </c>
       <c r="H9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
